--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H2">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>110871.0147545804</v>
+        <v>18.37448037003734</v>
       </c>
       <c r="R2">
-        <v>997839.1327912236</v>
+        <v>165.370323330336</v>
       </c>
       <c r="S2">
-        <v>0.1484435821555515</v>
+        <v>0.0001194833788869678</v>
       </c>
       <c r="T2">
-        <v>0.1484435821555515</v>
+        <v>0.0001194833788869678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H3">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>54280.49020108081</v>
+        <v>87.51252339030579</v>
       </c>
       <c r="R3">
-        <v>488524.4118097273</v>
+        <v>787.6127105127521</v>
       </c>
       <c r="S3">
-        <v>0.07267535545195203</v>
+        <v>0.0005690659969165315</v>
       </c>
       <c r="T3">
-        <v>0.07267535545195203</v>
+        <v>0.0005690659969165316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H4">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>26755.45516537614</v>
+        <v>41.63461242571912</v>
       </c>
       <c r="R4">
-        <v>240799.0964883853</v>
+        <v>374.7115118314721</v>
       </c>
       <c r="S4">
-        <v>0.03582248810243353</v>
+        <v>0.0002707365907003413</v>
       </c>
       <c r="T4">
-        <v>0.03582248810243353</v>
+        <v>0.0002707365907003413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H5">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>79371.93010465213</v>
+        <v>95.7276162765689</v>
       </c>
       <c r="R5">
-        <v>714347.3709418692</v>
+        <v>861.5485464891201</v>
       </c>
       <c r="S5">
-        <v>0.1062699178267227</v>
+        <v>0.0006224861228821952</v>
       </c>
       <c r="T5">
-        <v>0.1062699178267227</v>
+        <v>0.0006224861228821953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J6">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>2927.971342506352</v>
+        <v>300.9798488224347</v>
       </c>
       <c r="R6">
-        <v>26351.74208255717</v>
+        <v>2708.818639401912</v>
       </c>
       <c r="S6">
-        <v>0.003920218061434185</v>
+        <v>0.001957175854226357</v>
       </c>
       <c r="T6">
-        <v>0.003920218061434185</v>
+        <v>0.001957175854226357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J7">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
-        <v>1433.483044398631</v>
+        <v>1433.483044398632</v>
       </c>
       <c r="R7">
-        <v>12901.34739958768</v>
+        <v>12901.34739958769</v>
       </c>
       <c r="S7">
-        <v>0.001919269509175186</v>
+        <v>0.009321482527539783</v>
       </c>
       <c r="T7">
-        <v>0.001919269509175186</v>
+        <v>0.009321482527539785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J8">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>706.5796786774559</v>
+        <v>681.9882304866584</v>
       </c>
       <c r="R8">
-        <v>6359.217108097103</v>
+        <v>6137.894074379925</v>
       </c>
       <c r="S8">
-        <v>0.000946029210730814</v>
+        <v>0.004434751704465455</v>
       </c>
       <c r="T8">
-        <v>0.0009460292107308139</v>
+        <v>0.004434751704465455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J9">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>2096.118063501693</v>
+        <v>1568.048885999338</v>
       </c>
       <c r="R9">
-        <v>18865.06257151523</v>
+        <v>14112.43997399404</v>
       </c>
       <c r="S9">
-        <v>0.00280646185710404</v>
+        <v>0.01019652122868528</v>
       </c>
       <c r="T9">
-        <v>0.002806461857104039</v>
+        <v>0.01019652122868528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H10">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>26540.51845201679</v>
+        <v>465.2399263258206</v>
       </c>
       <c r="R10">
-        <v>238864.6660681511</v>
+        <v>4187.159336932385</v>
       </c>
       <c r="S10">
-        <v>0.03553471247650975</v>
+        <v>0.003025306690097166</v>
       </c>
       <c r="T10">
-        <v>0.03553471247650975</v>
+        <v>0.003025306690097166</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H11">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>12993.76897519363</v>
+        <v>2215.807963804192</v>
       </c>
       <c r="R11">
-        <v>116943.9207767427</v>
+        <v>19942.27167423773</v>
       </c>
       <c r="S11">
-        <v>0.01739716748014815</v>
+        <v>0.01440869168260669</v>
       </c>
       <c r="T11">
-        <v>0.01739716748014815</v>
+        <v>0.01440869168260669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H12">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>6404.772726944279</v>
+        <v>1054.184043709439</v>
       </c>
       <c r="R12">
-        <v>57642.95454249852</v>
+        <v>9487.656393384947</v>
       </c>
       <c r="S12">
-        <v>0.008575256649218238</v>
+        <v>0.0068550222359771</v>
       </c>
       <c r="T12">
-        <v>0.008575256649218238</v>
+        <v>0.0068550222359771</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H13">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>19000.20650282429</v>
+        <v>2423.813258767374</v>
       </c>
       <c r="R13">
-        <v>171001.8585254186</v>
+        <v>21814.31932890637</v>
       </c>
       <c r="S13">
-        <v>0.0254390989495108</v>
+        <v>0.01576128369979966</v>
       </c>
       <c r="T13">
-        <v>0.0254390989495108</v>
+        <v>0.01576128369979966</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H14">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>164912.5662563059</v>
+        <v>10831.79504186107</v>
       </c>
       <c r="R14">
-        <v>1484213.096306753</v>
+        <v>97486.15537674959</v>
       </c>
       <c r="S14">
-        <v>0.2207990260731282</v>
+        <v>0.0704357045722559</v>
       </c>
       <c r="T14">
-        <v>0.2207990260731282</v>
+        <v>0.0704357045722559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H15">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>80738.27913026015</v>
+        <v>51588.81763565969</v>
       </c>
       <c r="R15">
-        <v>726644.5121723413</v>
+        <v>464299.3587209372</v>
       </c>
       <c r="S15">
-        <v>0.1080993025787697</v>
+        <v>0.335465608809469</v>
       </c>
       <c r="T15">
-        <v>0.1080993025787697</v>
+        <v>0.335465608809469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H16">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>39796.79253810951</v>
+        <v>24543.69208601435</v>
       </c>
       <c r="R16">
-        <v>358171.1328429856</v>
+        <v>220893.2287741292</v>
       </c>
       <c r="S16">
-        <v>0.05328334421521329</v>
+        <v>0.1595997928507606</v>
       </c>
       <c r="T16">
-        <v>0.05328334421521329</v>
+        <v>0.1595997928507606</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H17">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>118059.9700584373</v>
+        <v>56431.63226779244</v>
       </c>
       <c r="R17">
-        <v>1062539.730525936</v>
+        <v>507884.6904101319</v>
       </c>
       <c r="S17">
-        <v>0.1580687694023977</v>
+        <v>0.366956886054731</v>
       </c>
       <c r="T17">
-        <v>0.1580687694023977</v>
+        <v>0.366956886054731</v>
       </c>
     </row>
   </sheetData>
